--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1084,10 +1096,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1131,28 +1143,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1177,28 +1189,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1298,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1333,28 +1345,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1391,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1633,10 +1645,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1680,28 +1692,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1726,28 +1738,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1951,10 +1963,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1998,28 +2010,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2044,28 +2056,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2385,10 +2397,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2432,28 +2444,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2478,28 +2490,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2645,10 +2657,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2692,28 +2704,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2738,28 +2750,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2876,10 +2888,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2923,28 +2935,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2969,28 +2981,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3165,10 +3177,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3212,28 +3224,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3258,28 +3270,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3425,10 +3437,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="J114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3472,28 +3484,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3518,28 +3530,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3743,10 +3755,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3790,28 +3802,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3836,28 +3848,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4119,10 +4131,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4166,28 +4178,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4212,28 +4224,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4437,10 +4449,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="J149" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4484,28 +4496,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4530,28 +4542,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4813,10 +4825,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
+      <c r="J162" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4860,28 +4872,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4906,28 +4918,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5044,10 +5056,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
+      <c r="J170" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K170" s="2" t="s">
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5091,28 +5103,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5137,28 +5149,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
